--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,21 +539,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,43 +2632,91 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>40</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F49" t="n">
         <v>3300</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>21/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,12 +1970,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,43 +2680,91 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>40</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F50" t="n">
         <v>3300</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>167000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>21/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>167000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/08/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>06/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,43 +2728,91 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>40</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F51" t="n">
         <v>3300</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/10/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>17/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,43 +2776,91 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>40</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>3300</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>MODIFICACION ACCESO VIAL E INCORPORACION DE RIEGO DE JARDINES CON AGUAS TRATADAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/10/2022</t>
+          <t>03/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154473993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,43 +2824,91 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>40</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F53" t="n">
         <v>3300</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/11/2022</t>
+          <t>10/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F38" t="n">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MODIFICACION ACCESO VIAL E INCORPORACION DE RIEGO DE JARDINES CON AGUAS TRATADAS</t>
+          <t>AUMENTO CAPACIDAD DE PRODUCCION PLANTA AMA TIME PLACILLA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/11/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154473993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157701120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>MODIFICACION ACCESO VIAL E INCORPORACION DE RIEGO DE JARDINES CON AGUAS TRATADAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/10/2022</t>
+          <t>10/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154473993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -779,21 +779,21 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,21 +2027,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,12 +2162,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,43 +2872,91 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>40</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F54" t="n">
         <v>3300</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>24/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE PRODUCCION PLANTA AMA TIME PLACILLA</t>
+          <t>?Ampliación capacidad de producción Planta Ama Time Placilla?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2023</t>
+          <t>16/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157701120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159470204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACION ACCESO VIAL E INCORPORACION DE RIEGO DE JARDINES CON AGUAS TRATADAS</t>
+          <t>AUMENTO CAPACIDAD DE PRODUCCION PLANTA AMA TIME PLACILLA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/11/2022</t>
+          <t>24/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154473993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157701120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>MODIFICACION ACCESO VIAL E INCORPORACION DE RIEGO DE JARDINES CON AGUAS TRATADAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/10/2022</t>
+          <t>10/11/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154473993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -827,21 +827,21 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,43 +2920,91 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>40</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F55" t="n">
         <v>3300</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/06/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?Ampliación capacidad de producción Planta Ama Time Placilla?</t>
+          <t>Ampliación capacidad de producción Planta Ama Time Placilla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2023</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159470204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159655699&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AUMENTO CAPACIDAD DE PRODUCCION PLANTA AMA TIME PLACILLA</t>
+          <t>?Ampliación capacidad de producción Planta Ama Time Placilla?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/01/2023</t>
+          <t>20/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157701120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159470204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODIFICACION ACCESO VIAL E INCORPORACION DE RIEGO DE JARDINES CON AGUAS TRATADAS</t>
+          <t>AUMENTO CAPACIDAD DE PRODUCCION PLANTA AMA TIME PLACILLA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/11/2022</t>
+          <t>24/01/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154473993&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157701120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>MODIFICACION ACCESO VIAL E INCORPORACION DE RIEGO DE JARDINES CON AGUAS TRATADAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19/10/2022</t>
+          <t>10/11/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154473993&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
+          <t>Proyecto de Extracción de Áridos: Restauración Hidráulica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14/10/2022</t>
+          <t>19/10/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157305521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>14/10/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157236256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Llanos Solar</t>
+          <t>Proyecto de Extracción de Aridos: Restauración HIdraúlica y Morfodinámica de Cauce Sinuoso, Sector Placilla, Río Tinguiririca, Región de OnullHiggins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Los Llanos Solar SpA</t>
+          <t>Sociedad Inversiones y Aridos San Vicente SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>167000</v>
+        <v>300</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156794752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lader Energy Chile SpA</t>
+          <t>Los Llanos Solar SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>200000</v>
+        <v>167000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>24/08/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156706245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Fotovoltaico Los Llanos Solar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Lader Energy Chile SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>200000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154615505&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Placilla</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GR Lilen SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8820</v>
+        <v>42</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>Planta Fotovoltaica Placilla</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>GR Lilen SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>37</v>
+        <v>8820</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>18/07/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132548125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14400</v>
+        <v>37</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Instalación de Nuevo Banco de Autotransformadores y Unidad de Reserva en S/E Tinguiririca</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>14400</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/03/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132253540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ama Time SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2600</v>
+        <v>37</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/08/2014</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Comercial Greenvic S.A.</t>
+          <t>Ama Time SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/08/2014</t>
+          <t>20/08/2014</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129727445&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Ampliación de la Potencia Generadora de Energía Instalada y Nueva Área de Proceso en Planta Agroindustrial, Comercial Greenvic S.A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Comercial Greenvic S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>2600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>07/08/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129697161&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1355,11 +1355,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>500</v>
+        <v>1750</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/09/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Línea de Transmisión Eléctrica TAP-OFF San Fernando (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/09/2006</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1707671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>470</v>
+        <v>4000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Placilla (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1270328&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Placilla</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PLACILLA (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ilustre Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>30/12/2004</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hernam Macaya Conde</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>29/07/2002</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Planta de Tratamiento y depuración de las Aguas Residuales Industriales Viña Macaya (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Hernam Macaya Conde</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>29/07/2002</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=17178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,43 +2968,91 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>Sistema Particular de Agua Potable Alcantarillado y Disposición de Residuos Industriales Líquidos de la Viña Santa Emiliana Fundo Los Robles</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Bodegas y Viñedos Santa Emiliana SA</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>40</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18/07/2001</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4264&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Placilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>Extracción de Áridos desde El Río Tinguiririca</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Sexta</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="F56" t="n">
         <v>3300</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>24/06/1999</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2084&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Placilla</t>
         </is>

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Placilla.xlsx
+++ b/data/Placilla.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
